--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H2">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.7673063333333</v>
+        <v>145.520762</v>
       </c>
       <c r="N2">
-        <v>425.301919</v>
+        <v>436.562286</v>
       </c>
       <c r="O2">
-        <v>0.9653621431809045</v>
+        <v>0.962605808965774</v>
       </c>
       <c r="P2">
-        <v>0.9653621431809047</v>
+        <v>0.9626058089657743</v>
       </c>
       <c r="Q2">
-        <v>45.46160900459189</v>
+        <v>10.2228335305</v>
       </c>
       <c r="R2">
-        <v>409.154481041327</v>
+        <v>92.00550177449999</v>
       </c>
       <c r="S2">
-        <v>0.0289799539593197</v>
+        <v>0.005040777470088835</v>
       </c>
       <c r="T2">
-        <v>0.02897995395931971</v>
+        <v>0.005040777470088837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H3">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.19568</v>
       </c>
       <c r="O3">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="P3">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="Q3">
-        <v>1.196734846382222</v>
+        <v>0.2621655066666667</v>
       </c>
       <c r="R3">
-        <v>10.77061361744</v>
+        <v>2.35948956</v>
       </c>
       <c r="S3">
-        <v>0.0007628705078644999</v>
+        <v>0.0001292712021082008</v>
       </c>
       <c r="T3">
-        <v>0.0007628705078645</v>
+        <v>0.0001292712021082009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H4">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.354815</v>
+        <v>1.921128</v>
       </c>
       <c r="N4">
-        <v>4.064445</v>
+        <v>5.763384</v>
       </c>
       <c r="O4">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="P4">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="Q4">
-        <v>0.4344589129650001</v>
+        <v>0.134959242</v>
       </c>
       <c r="R4">
-        <v>3.910130216685</v>
+        <v>1.214633178</v>
       </c>
       <c r="S4">
-        <v>0.0002769501469618039</v>
+        <v>6.654705903448215E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002769501469618039</v>
+        <v>6.654705903448215E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.256823</v>
       </c>
       <c r="I5">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J5">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.7673063333333</v>
+        <v>145.520762</v>
       </c>
       <c r="N5">
-        <v>425.301919</v>
+        <v>436.562286</v>
       </c>
       <c r="O5">
-        <v>0.9653621431809045</v>
+        <v>0.962605808965774</v>
       </c>
       <c r="P5">
-        <v>0.9653621431809047</v>
+        <v>0.9626058089657743</v>
       </c>
       <c r="Q5">
-        <v>815.4844375270374</v>
+        <v>837.0753442197087</v>
       </c>
       <c r="R5">
-        <v>7339.359937743337</v>
+        <v>7533.678097977378</v>
       </c>
       <c r="S5">
-        <v>0.5198386500506004</v>
+        <v>0.4127535211563977</v>
       </c>
       <c r="T5">
-        <v>0.5198386500506006</v>
+        <v>0.4127535211563979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.256823</v>
       </c>
       <c r="I6">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J6">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.19568</v>
       </c>
       <c r="O6">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="P6">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="Q6">
         <v>21.46687423607111</v>
@@ -818,10 +818,10 @@
         <v>193.20186812464</v>
       </c>
       <c r="S6">
-        <v>0.01368427208436486</v>
+        <v>0.01058510203453594</v>
       </c>
       <c r="T6">
-        <v>0.01368427208436487</v>
+        <v>0.01058510203453594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.256823</v>
       </c>
       <c r="I7">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J7">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.354815</v>
+        <v>1.921128</v>
       </c>
       <c r="N7">
-        <v>4.064445</v>
+        <v>5.763384</v>
       </c>
       <c r="O7">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="P7">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="Q7">
-        <v>7.793267550915001</v>
+        <v>11.050855285448</v>
       </c>
       <c r="R7">
-        <v>70.139407958235</v>
+        <v>99.45769756903201</v>
       </c>
       <c r="S7">
-        <v>0.004967895764432027</v>
+        <v>0.005449066756482132</v>
       </c>
       <c r="T7">
-        <v>0.004967895764432028</v>
+        <v>0.005449066756482133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H8">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>141.7673063333333</v>
+        <v>145.520762</v>
       </c>
       <c r="N8">
-        <v>425.301919</v>
+        <v>436.562286</v>
       </c>
       <c r="O8">
-        <v>0.9653621431809045</v>
+        <v>0.962605808965774</v>
       </c>
       <c r="P8">
-        <v>0.9653621431809047</v>
+        <v>0.9626058089657743</v>
       </c>
       <c r="Q8">
-        <v>653.4427051803615</v>
+        <v>1104.892530715239</v>
       </c>
       <c r="R8">
-        <v>5880.984346623253</v>
+        <v>9944.032776437154</v>
       </c>
       <c r="S8">
-        <v>0.4165435391709843</v>
+        <v>0.5448115103392874</v>
       </c>
       <c r="T8">
-        <v>0.4165435391709844</v>
+        <v>0.5448115103392875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H9">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.19568</v>
       </c>
       <c r="O9">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="P9">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="Q9">
-        <v>17.20127537335111</v>
+        <v>28.33507063016889</v>
       </c>
       <c r="R9">
-        <v>154.81147836016</v>
+        <v>255.01563567152</v>
       </c>
       <c r="S9">
-        <v>0.01096512374454112</v>
+        <v>0.0139717413200355</v>
       </c>
       <c r="T9">
-        <v>0.01096512374454113</v>
+        <v>0.0139717413200355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H10">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.354815</v>
+        <v>1.921128</v>
       </c>
       <c r="N10">
-        <v>4.064445</v>
+        <v>5.763384</v>
       </c>
       <c r="O10">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="P10">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="Q10">
-        <v>6.244697748135001</v>
+        <v>14.586509502664</v>
       </c>
       <c r="R10">
-        <v>56.202279733215</v>
+        <v>131.278585523976</v>
       </c>
       <c r="S10">
-        <v>0.003980744570931061</v>
+        <v>0.007192462662029593</v>
       </c>
       <c r="T10">
-        <v>0.003980744570931061</v>
+        <v>0.007192462662029593</v>
       </c>
     </row>
   </sheetData>
